--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HPT\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B671D-3513-41FD-B766-784A2AC5BF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ABD215-0D14-4ECB-AC70-8BA2811C32CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="636" windowWidth="17280" windowHeight="11604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
